--- a/biology/Zoologie/Euchrysops_cnejus/Euchrysops_cnejus.xlsx
+++ b/biology/Zoologie/Euchrysops_cnejus/Euchrysops_cnejus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchrysops cnejus est un insecte lépidoptère de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Euchrysops.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euchrysops cnejus a été nommé par Johan Christian Fabricius en 1798[1].
-Sous-genres
-Euchrysops cnejus cnejus
-Euchrysops cnejus cnidus Waterhouse et Lyell, 1914; présent en Nouvelle-Calédonie et Australie[2].
-Euchrysops cnejus vitiensis (Butler, 1883)[1].
-Noms vernaculaires
-Euchrysops cnejusa se nomme en anglais Gram Blue et Euchrysops cnejus cnidus Cupid[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchrysops cnejus a été nommé par Johan Christian Fabricius en 1798.
 </t>
         </is>
       </c>
@@ -545,16 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel au dessus des mâles est gris bleu violacé, celui des femelles est marron suffusé de violet. Les ailes postérieures sont marquées d'une queue et de deux ocelles noirs cerclé de jaune orangé en position anale.
-Le revers est gris orné de lignes de discrètes points gris et aux ailes postérieures des deux ocelles noirs en position anale.
-Chenille
-Sa chenille, de couleur verte est ornée d'une ligne dorsale rouge[3].
-</t>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euchrysops cnejus cnejus
+Euchrysops cnejus cnidus Waterhouse et Lyell, 1914; présent en Nouvelle-Calédonie et Australie.
+Euchrysops cnejus vitiensis (Butler, 1883).</t>
         </is>
       </c>
     </row>
@@ -579,13 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Ses plantes hôtes sont diverses des Acacia, Cycas, des Phaseolus dont Phaseolus vulgaris, des Sesbania, des Vigna dont Vigna catjang, Vigna luteola, Vigna unguiculata, Vigna vexillata, Asukia minima, Asuki mungo, Butea frondosa, Canavalia maritima, Cylista scariosa, Eugenia dalbergioides, Macroptilium lathyroides[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchrysops cnejusa se nomme en anglais Gram Blue et Euchrysops cnejus cnidus Cupid.
 </t>
         </is>
       </c>
@@ -611,15 +628,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel au dessus des mâles est gris bleu violacé, celui des femelles est marron suffusé de violet. Les ailes postérieures sont marquées d'une queue et de deux ocelles noirs cerclé de jaune orangé en position anale.
+Le revers est gris orné de lignes de discrètes points gris et aux ailes postérieures des deux ocelles noirs en position anale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chenille, de couleur verte est ornée d'une ligne dorsale rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses des Acacia, Cycas, des Phaseolus dont Phaseolus vulgaris, des Sesbania, des Vigna dont Vigna catjang, Vigna luteola, Vigna unguiculata, Vigna vexillata, Asukia minima, Asuki mungo, Butea frondosa, Canavalia maritima, Cylista scariosa, Eugenia dalbergioides, Macroptilium lathyroides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud de l'Asie, en Inde, Sri Lanka, Malaisie et en Océanie en Nouvelle-Guinée, aux iles Salomon, aux Fidji, en Nouvelle-Calédonie, dans le nord de l'Australie[1] et aux États fédérés de Micronésie[4].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud de l'Asie, en Inde, Sri Lanka, Malaisie et en Océanie en Nouvelle-Guinée, aux iles Salomon, aux Fidji, en Nouvelle-Calédonie, dans le nord de l'Australie et aux États fédérés de Micronésie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchrysops_cnejus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
